--- a/src/main/DataSource/ArrayRange_0-50.xlsx
+++ b/src/main/DataSource/ArrayRange_0-50.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2E7201-E28C-4408-9411-F83D4ABC7D18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D93589-F02F-4815-9386-70B8511982A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3864" yWindow="696" windowWidth="15852" windowHeight="11664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -335,10 +335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,6 +598,66 @@
         <v>50</v>
       </c>
     </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
